--- a/DisciplineWorkProgram/dolznosti.xlsx
+++ b/DisciplineWorkProgram/dolznosti.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC44660-FC6F-41F7-B2E0-B778CFE21425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2352" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Сотрудники" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,110 +20,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="126">
   <si>
     <t>Институт</t>
   </si>
   <si>
-    <t>высокоэффективные технологии и обработка</t>
-  </si>
-  <si>
-    <t>инструментальная техника и технологии формообразования</t>
-  </si>
-  <si>
-    <t>композиционные материалы</t>
-  </si>
-  <si>
-    <t>системы пластического деформирования</t>
-  </si>
-  <si>
-    <t>теоретическая механика и сопротивление материалов</t>
-  </si>
-  <si>
-    <t>станки</t>
-  </si>
-  <si>
-    <t>технологического проектирования</t>
-  </si>
-  <si>
     <t>должность</t>
   </si>
   <si>
-    <t>гидропневмоавтоматика и гидропривод</t>
-  </si>
-  <si>
     <t>ИПТИ</t>
   </si>
   <si>
     <t>измерительные информационные системы и технологии</t>
   </si>
   <si>
-    <t>компьютерные системы управления</t>
-  </si>
-  <si>
-    <t>робототехника и мехатроника</t>
-  </si>
-  <si>
-    <t>сенсорные и управляющие системы</t>
-  </si>
-  <si>
     <t>Физика</t>
   </si>
   <si>
-    <t>промышленная электроника и интеллектуальные цифровые системы</t>
-  </si>
-  <si>
     <t>ИЦИС</t>
   </si>
   <si>
-    <t>информационные системы</t>
-  </si>
-  <si>
-    <t>информационные технологии и вычислительные системы</t>
-  </si>
-  <si>
-    <t>прикладная математика</t>
-  </si>
-  <si>
-    <t>управление и информатика в технических системах</t>
-  </si>
-  <si>
     <t>ИИТ</t>
   </si>
   <si>
-    <t>инженерная экология и безопасность жизнедеятельности</t>
-  </si>
-  <si>
-    <t>иностранные языки</t>
-  </si>
-  <si>
-    <t>философия и социальное управление</t>
-  </si>
-  <si>
-    <t>финансовый менеджмент</t>
-  </si>
-  <si>
-    <t>экономика и управление предприятием</t>
-  </si>
-  <si>
-    <t>физическое воспитание и спорт</t>
-  </si>
-  <si>
     <t>ИСТМ</t>
   </si>
   <si>
-    <t>название</t>
-  </si>
-  <si>
     <t>ИС</t>
   </si>
   <si>
     <t>ИТиВС</t>
   </si>
   <si>
-    <t>ПМ</t>
-  </si>
-  <si>
     <t>УИТС</t>
   </si>
   <si>
@@ -133,9 +62,6 @@
   </si>
   <si>
     <t>ФИО</t>
-  </si>
-  <si>
-    <t>технологии машиностроения</t>
   </si>
   <si>
     <t>Инженерная графика</t>
@@ -197,9 +123,6 @@
     <t>Управление по организации проектного обучения</t>
   </si>
   <si>
-    <t>дистанционка?</t>
-  </si>
-  <si>
     <t>Директор научно-технической библиотеки</t>
   </si>
   <si>
@@ -312,13 +235,184 @@
   </si>
   <si>
     <t>То что вносится в документ.</t>
+  </si>
+  <si>
+    <t>номер</t>
+  </si>
+  <si>
+    <t>АСОИиУ</t>
+  </si>
+  <si>
+    <t>Высокоэффективные технологии обработки</t>
+  </si>
+  <si>
+    <t>ВТО</t>
+  </si>
+  <si>
+    <t>ИИСиТ</t>
+  </si>
+  <si>
+    <t>ИГ</t>
+  </si>
+  <si>
+    <t>Инженерная экология и безопасность жизнедеятельности</t>
+  </si>
+  <si>
+    <t>ИНЭБ</t>
+  </si>
+  <si>
+    <t>Иностранные языки</t>
+  </si>
+  <si>
+    <t>ИнЯз</t>
+  </si>
+  <si>
+    <t>Инструментальная техника и технология формообразования</t>
+  </si>
+  <si>
+    <t>ИТиТФ</t>
+  </si>
+  <si>
+    <t>Информационные системы</t>
+  </si>
+  <si>
+    <t>Информационные технологии и вычислительные системы</t>
+  </si>
+  <si>
+    <t>Композиционные материалы</t>
+  </si>
+  <si>
+    <t>КМ</t>
+  </si>
+  <si>
+    <t>Компьютерные системы управления</t>
+  </si>
+  <si>
+    <t>КСУ</t>
+  </si>
+  <si>
+    <t>Прикладная математика</t>
+  </si>
+  <si>
+    <t>ПриМ</t>
+  </si>
+  <si>
+    <t>Робототехника и мехатроника</t>
+  </si>
+  <si>
+    <t>РиМ</t>
+  </si>
+  <si>
+    <t>Сенсорные и управляющие системы</t>
+  </si>
+  <si>
+    <t>СиУС</t>
+  </si>
+  <si>
+    <t>Системы пластического деформирования</t>
+  </si>
+  <si>
+    <t>СПД</t>
+  </si>
+  <si>
+    <t>Станки</t>
+  </si>
+  <si>
+    <t>Теоретическая механика и сопротивление материалов</t>
+  </si>
+  <si>
+    <t>СМиТМ</t>
+  </si>
+  <si>
+    <t>Технологическое проектирование</t>
+  </si>
+  <si>
+    <t>ТП</t>
+  </si>
+  <si>
+    <t>Технология машиностроения</t>
+  </si>
+  <si>
+    <t>ТехМаш</t>
+  </si>
+  <si>
+    <t>Управление и информатика в технических системах</t>
+  </si>
+  <si>
+    <t>Физическое воспитание и спорт</t>
+  </si>
+  <si>
+    <t>ФВиС</t>
+  </si>
+  <si>
+    <t>Философия и социальное управление</t>
+  </si>
+  <si>
+    <t>ФиСУ</t>
+  </si>
+  <si>
+    <t>Финансовый менеджмент</t>
+  </si>
+  <si>
+    <t>ФМ</t>
+  </si>
+  <si>
+    <t>Экономика и управление предприятием</t>
+  </si>
+  <si>
+    <t>ЭиУП</t>
+  </si>
+  <si>
+    <t>Промышленная электроника и интеллектуальные цифровые системы</t>
+  </si>
+  <si>
+    <t>ПЭиИЦС</t>
+  </si>
+  <si>
+    <t>Информационная безопасность</t>
+  </si>
+  <si>
+    <t>ИБ</t>
+  </si>
+  <si>
+    <t>Социология, политология и нормативно-правовое регулирование промышленного развития</t>
+  </si>
+  <si>
+    <t>СПиНПР</t>
+  </si>
+  <si>
+    <t>Технологический инжиниринг</t>
+  </si>
+  <si>
+    <t>ТИ</t>
+  </si>
+  <si>
+    <t>Технологии космического машиностроения</t>
+  </si>
+  <si>
+    <t>ТКМ</t>
+  </si>
+  <si>
+    <t>Гидропневмоавтоматика и гидропривод</t>
+  </si>
+  <si>
+    <t>ГПАиГП</t>
+  </si>
+  <si>
+    <t>ФЗ</t>
+  </si>
+  <si>
+    <t>УпоОПО</t>
+  </si>
+  <si>
+    <t>????</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +505,11 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -425,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -578,11 +677,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -605,9 +748,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -636,9 +776,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -650,10 +787,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -695,6 +828,54 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,638 +1156,852 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="23" customWidth="1"/>
-    <col min="2" max="5" width="30.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" style="44" customWidth="1"/>
+    <col min="4" max="5" width="30.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24.6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C5" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="B9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25.2" thickBot="1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.2" thickTop="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="24.6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="37.200000000000003" thickBot="1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickTop="1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24.6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25.2" thickBot="1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="37.200000000000003" thickTop="1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24.6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="24.6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24.6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickTop="1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:6" ht="48.6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+    </row>
+    <row r="32" spans="1:6" ht="24.6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" spans="1:6" ht="35.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="35.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="35.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="43.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.6">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="19" t="s">
+      <c r="B38" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="42">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27.6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="24.75">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="20" t="s">
+      <c r="C40" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="31.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="43.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="24.75">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.75">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.75">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="24.75">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="25.5" thickBot="1">
-      <c r="A11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="25.5" thickTop="1">
-      <c r="A12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24.75">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="24.75">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="37.5" thickBot="1">
-      <c r="A17" s="12" t="s">
+      <c r="F43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickTop="1">
-      <c r="A18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="24.75">
-      <c r="A19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="25.5" thickBot="1">
-      <c r="A21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="37.5" thickTop="1">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="24.75">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="24.75">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="24.75">
-      <c r="A27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="37.5" thickTop="1">
-      <c r="A29" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="36.75">
-      <c r="A30" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="36.75">
-      <c r="A31" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45">
-      <c r="A32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75">
-      <c r="A34" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="43.5">
-      <c r="A35" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.5">
-      <c r="A36" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="31.5">
-      <c r="A37" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75">
-      <c r="A38" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="C43" s="8"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DisciplineWorkProgram/dolznosti.xlsx
+++ b/DisciplineWorkProgram/dolznosti.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC44660-FC6F-41F7-B2E0-B778CFE21425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="1845" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Сотрудники" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="128">
   <si>
     <t>Институт</t>
   </si>
@@ -31,9 +30,6 @@
     <t>ИПТИ</t>
   </si>
   <si>
-    <t>измерительные информационные системы и технологии</t>
-  </si>
-  <si>
     <t>Физика</t>
   </si>
   <si>
@@ -53,9 +49,6 @@
   </si>
   <si>
     <t>УИТС</t>
-  </si>
-  <si>
-    <t>автоматизированных систем обработки информации и управления</t>
   </si>
   <si>
     <t>Заведующий кафедрой</t>
@@ -406,12 +399,24 @@
   </si>
   <si>
     <t>????</t>
+  </si>
+  <si>
+    <t>начиная с этой строки, не меняйте второй столбец. Его изменение требуется поверять в коде, так как это справочная информация.</t>
+  </si>
+  <si>
+    <t>Второй столбец должен быть согласован с учёбным планом</t>
+  </si>
+  <si>
+    <t>Автоматизированные системы обработки информации и управления</t>
+  </si>
+  <si>
+    <t>Измерительные информационные системы и технологии</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -725,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -748,19 +753,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -790,16 +786,7 @@
     <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,6 +863,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,852 +1146,858 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="44" customWidth="1"/>
-    <col min="4" max="5" width="30.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="38" customWidth="1"/>
+    <col min="4" max="5" width="30.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="45.75" thickBot="1">
       <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" ht="24.6">
+      <c r="H1" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="36.75">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>12</v>
+      <c r="B2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="24.6">
+        <v>57</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36.75">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>58</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="36.75">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.6">
+        <v>59</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="36.75">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>12</v>
+        <v>91</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.6">
+        <v>60</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36.75">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>61</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36.75">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>62</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="36.75">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>12</v>
+        <v>96</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>63</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="36.75">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>12</v>
+        <v>98</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>64</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="36.75">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>74</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="25.2" thickBot="1">
+        <v>56</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="37.5" thickBot="1">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="25.2" thickTop="1">
+      <c r="B11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="37.5" thickTop="1">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>12</v>
+      <c r="B12" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24.6">
+        <v>40</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36.75">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>54</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="36.75">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="24.6">
+        <v>41</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="36.75">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>12</v>
+        <v>89</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>53</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="36.75">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="37.200000000000003" thickBot="1">
+        <v>52</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="37.5" thickBot="1">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>12</v>
+      <c r="B17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1">
+        <v>51</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="37.5" thickTop="1">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>12</v>
+      <c r="B18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24.6">
+        <v>36</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="36.75">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="36.75">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="25.2" thickBot="1">
+        <v>49</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="37.5" thickBot="1">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="37.200000000000003" thickTop="1">
+      <c r="B21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45.75" thickTop="1">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>12</v>
+        <v>126</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24.6">
+        <v>47</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>12</v>
+        <v>73</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="24.6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>12</v>
+        <v>103</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24.6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>12</v>
+        <v>107</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45.75" thickBot="1">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickTop="1">
+      <c r="B28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickTop="1">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-    </row>
-    <row r="30" spans="1:6" ht="48.6">
+      <c r="B29" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30" spans="1:6" ht="48.75">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
+      <c r="B30" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-    </row>
-    <row r="32" spans="1:6" ht="24.6">
+      <c r="B31" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+    </row>
+    <row r="32" spans="1:6" ht="24.75">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-    </row>
-    <row r="33" spans="1:6" ht="35.4">
+      <c r="B32" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" ht="75">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="46" t="s">
+      <c r="B33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="35.4">
+      <c r="D33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="36.75">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>5</v>
+      <c r="B34" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>4</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="35.4">
+        <v>21</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="36.75">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>6</v>
+      <c r="B35" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="43.2">
+        <v>22</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>24</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>38</v>
+      <c r="B38" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="43.5">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>29</v>
+      <c r="B39" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="27.6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.5">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>124</v>
+      <c r="B40" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="31.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="31.5">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>31</v>
+      <c r="B41" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="43"/>
+      <c r="B42" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="37"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="43.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="C47" s="50"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="C47" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DisciplineWorkProgram/dolznosti.xlsx
+++ b/DisciplineWorkProgram/dolznosti.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="129">
   <si>
     <t>Институт</t>
   </si>
@@ -407,22 +407,33 @@
     <t>Второй столбец должен быть согласован с учёбным планом</t>
   </si>
   <si>
-    <t>Автоматизированные системы обработки информации и управления</t>
-  </si>
-  <si>
     <t>Измерительные информационные системы и технологии</t>
+  </si>
+  <si>
+    <t>Проректор по образовательной деятельности и молодежной политике</t>
+  </si>
+  <si>
+    <t>Автоматизированные системы обработки информации и управление</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,105 +741,105 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -849,16 +860,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -867,6 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1149,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I17" sqref="I15:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1392,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>71</v>
@@ -1466,6 +1478,7 @@
       <c r="F15" s="23" t="s">
         <v>17</v>
       </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="36.75">
       <c r="A16">
@@ -1486,6 +1499,7 @@
       <c r="F16" s="23" t="s">
         <v>17</v>
       </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="37.5" thickBot="1">
       <c r="A17">
@@ -1592,7 +1606,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>68</v>
@@ -1890,8 +1904,8 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>25</v>
+      <c r="B38" s="46" t="s">
+        <v>127</v>
       </c>
       <c r="C38" s="42" t="s">
         <v>25</v>
@@ -1996,6 +2010,12 @@
         <v>14</v>
       </c>
     </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="F44" s="4"/>
+    </row>
     <row r="47" spans="1:8">
       <c r="C47" s="44"/>
     </row>

--- a/DisciplineWorkProgram/dolznosti.xlsx
+++ b/DisciplineWorkProgram/dolznosti.xlsx
@@ -413,7 +413,7 @@
     <t>Проректор по образовательной деятельности и молодежной политике</t>
   </si>
   <si>
-    <t>Автоматизированные системы обработки информации и управление</t>
+    <t>Автоматизированные системы обработки информации и управления</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I17" sqref="I15:I17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
